--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -110,6 +110,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&gt; Contact / . =&gt; La Chouette</t>
     </r>
@@ -140,6 +141,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&gt; 320px</t>
     </r>
@@ -155,6 +157,70 @@
   </si>
   <si>
     <t xml:space="preserve">Laisser que les réseaux sociaux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chargement des images pour mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le format de certaine image est trop lourd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des images au format JPG / PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Format BMP =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt; JPG</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt des images mal renseigné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’alt des IMG ne correspond pas au image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des description d’image cohérentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt des image modifié dans les fichiers HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvais stylesheet utilisé </t>
+  </si>
+  <si>
+    <t xml:space="preserve">href="./css/bootstrap.min.css"&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">href="./css/bootstrap.css"&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La couleur de certain texte n’est pas visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couleur de texte trop proche de la couleur du fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser des couleurs plus voyantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color : white </t>
   </si>
 </sst>
 </file>
@@ -164,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -215,12 +281,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -292,7 +352,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,18 +437,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
@@ -544,16 +604,72 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="4"/>
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="4"/>
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="4"/>
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="4"/>
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E13" s="4"/>
